--- a/sales.xlsx
+++ b/sales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\PythonWithOpenpyxl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\PythonWithOpenpyxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -438,17 +438,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -790,567 +790,565 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="8" customWidth="1"/>
-    <col min="4" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="8" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="13.26953125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="16.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="1.7265625" style="5" customWidth="1"/>
+    <col min="8" max="10" width="9.1796875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>51</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>25</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <f>D3*E3</f>
         <v>1275</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>93</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>132</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <f t="shared" ref="F4:F27" si="0">D4*E4</f>
         <v>12276</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>57</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>151</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>8607</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>19</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>186</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>3534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>75</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>62</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>4650</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>11</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>56</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>58</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>3248</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>38</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>101</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>3838</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>59</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>122</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>7198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>50</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>175</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>8750</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>59</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>176</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>10384</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>18</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <v>22</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>26</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>72</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>1872</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>42</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>62</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>2604</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>32</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>46</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>1472</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>90</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="5">
         <v>96</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>8640</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>97</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>57</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>5529</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>12</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
         <v>6</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>82</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <v>143</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>11726</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>16</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <v>124</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>1984</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>19</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <v>112</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>2128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <v>24</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <v>182</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>4368</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <v>29</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <v>106</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>3074</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="5">
         <v>75</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="5">
         <v>173</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>12975</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>14</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <v>28</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
@@ -1371,31 +1369,31 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="4" customWidth="1"/>
-    <col min="4" max="6" width="16.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="3" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="4" customWidth="1"/>
+    <col min="4" max="6" width="16.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="1.7265625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="9.1796875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1434,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1455,7 @@
         <v>12276</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1478,7 +1476,7 @@
         <v>8607</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1520,7 +1518,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1562,7 +1560,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1583,7 +1581,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>7198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1625,7 +1623,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>10384</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1667,7 +1665,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1688,7 +1686,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1709,7 +1707,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1730,7 +1728,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1751,7 +1749,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>5529</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1793,7 +1791,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1814,7 +1812,7 @@
         <v>11726</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1835,7 +1833,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -1856,7 +1854,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -1877,7 +1875,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -1898,7 +1896,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -1919,7 +1917,7 @@
         <v>12975</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\PythonWithOpenpyxl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\PythonWithOpenpyxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="2" r:id="rId1"/>
-    <sheet name="销售清单" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="ColumnTitle1" localSheetId="0">#REF!</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>销售清单</t>
   </si>
@@ -284,21 +283,13 @@
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="&quot;续订&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="34"/>
-      <color theme="6" tint="-0.24994659260841701"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -317,33 +308,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="34"/>
-      <color theme="6" tint="-0.24994659260841701"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,26 +326,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -383,82 +335,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="标记列" xfId="6"/>
-    <cellStyle name="标题" xfId="1" builtinId="15"/>
-    <cellStyle name="表格所用货币单位" xfId="2"/>
-    <cellStyle name="表格详细信息置于右侧" xfId="3"/>
-    <cellStyle name="表格详细信息置于左侧" xfId="5"/>
+  <cellStyles count="6">
+    <cellStyle name="标记列" xfId="5"/>
+    <cellStyle name="表格所用货币单位" xfId="1"/>
+    <cellStyle name="表格详细信息置于右侧" xfId="2"/>
+    <cellStyle name="表格详细信息置于左侧" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="已停产" xfId="4"/>
+    <cellStyle name="已停产" xfId="3"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -790,630 +702,46 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="16.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="1.7265625" style="5" customWidth="1"/>
-    <col min="8" max="10" width="9.1796875" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>51</v>
-      </c>
-      <c r="E3" s="5">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5">
-        <f>D3*E3</f>
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5">
-        <v>93</v>
-      </c>
-      <c r="E4" s="5">
-        <v>132</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F27" si="0">D4*E4</f>
-        <v>12276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5">
-        <v>57</v>
-      </c>
-      <c r="E5" s="5">
-        <v>151</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>8607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5">
-        <v>186</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>3534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5">
-        <v>75</v>
-      </c>
-      <c r="E7" s="5">
-        <v>62</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>4650</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5">
-        <v>56</v>
-      </c>
-      <c r="E9" s="5">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5">
-        <v>101</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>3838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5">
-        <v>59</v>
-      </c>
-      <c r="E11" s="5">
-        <v>122</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>7198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5">
-        <v>50</v>
-      </c>
-      <c r="E12" s="5">
-        <v>175</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>8750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5">
-        <v>59</v>
-      </c>
-      <c r="E13" s="5">
-        <v>176</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>10384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5">
-        <v>18</v>
-      </c>
-      <c r="E14" s="5">
-        <v>22</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5">
-        <v>26</v>
-      </c>
-      <c r="E15" s="5">
-        <v>72</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5">
-        <v>42</v>
-      </c>
-      <c r="E16" s="5">
-        <v>62</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="5">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5">
-        <v>46</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="5">
-        <v>90</v>
-      </c>
-      <c r="E18" s="5">
-        <v>96</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>8640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="5">
-        <v>97</v>
-      </c>
-      <c r="E19" s="5">
-        <v>57</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>5529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="5">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5">
-        <v>6</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="5">
-        <v>82</v>
-      </c>
-      <c r="E21" s="5">
-        <v>143</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="0"/>
-        <v>11726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="5">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5">
-        <v>124</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="0"/>
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="5">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5">
-        <v>112</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="0"/>
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="5">
-        <v>24</v>
-      </c>
-      <c r="E24" s="5">
-        <v>182</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="0"/>
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="5">
-        <v>29</v>
-      </c>
-      <c r="E25" s="5">
-        <v>106</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="5">
-        <v>75</v>
-      </c>
-      <c r="E26" s="5">
-        <v>173</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="0"/>
-        <v>12975</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="5">
-        <v>14</v>
-      </c>
-      <c r="E27" s="5">
-        <v>28</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="0"/>
-        <v>392</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="3.937007874015748E-2" footer="0.31496062992125978"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" style="4" customWidth="1"/>
-    <col min="4" max="6" width="16.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="1.7265625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="9.1796875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +762,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1455,7 +783,7 @@
         <v>12276</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +804,7 @@
         <v>8607</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1497,7 +825,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +846,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1539,7 +867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1560,7 +888,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1581,7 +909,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1602,7 +930,7 @@
         <v>7198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1623,7 +951,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,7 +972,7 @@
         <v>10384</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1665,7 +993,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1686,7 +1014,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1707,7 +1035,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1728,7 +1056,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1749,7 +1077,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1770,7 +1098,7 @@
         <v>5529</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1791,7 +1119,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1812,7 +1140,7 @@
         <v>11726</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1833,7 +1161,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -1854,7 +1182,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -1875,7 +1203,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -1896,7 +1224,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -1917,7 +1245,7 @@
         <v>12975</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -1939,10 +1267,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="3.937007874015748E-2" footer="0.31496062992125978"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
